--- a/aimms_model/energy_hub/results/RTP/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/RTP/results_capacities.xlsx
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Elec</t>
   </si>
   <si>
     <t>Heat</t>
-  </si>
-  <si>
-    <t>Electric_boiler</t>
   </si>
   <si>
     <t>Gas_CHP</t>
@@ -381,13 +378,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -406,19 +403,16 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -427,16 +421,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -447,18 +438,15 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>1</v>
       </c>
     </row>
@@ -469,13 +457,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -494,19 +482,16 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>49.71098265895953</v>
       </c>
       <c r="C2">
-        <v>5.9115171259665589</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -515,27 +500,24 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1129.7522478085427</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.8172719405221933</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>10.226924627922148</v>
+        <v>494.17985315754504</v>
       </c>
       <c r="D3">
-        <v>39.773075372077848</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -544,9 +526,6 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -576,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>109.7529518336726</v>
+        <v>939.88908271631851</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/RTP/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/RTP/results_capacities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Installation" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49.71098265895953</v>
+        <v>248.55491329479767</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1129.7522478085427</v>
+        <v>5648.761239042713</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="C3">
-        <v>494.17985315754504</v>
+        <v>2470.8992657877257</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>939.88908271631851</v>
+        <v>4699.4454135815886</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/RTP/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/RTP/results_capacities.xlsx
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>248.55491329479767</v>
+        <v>289.01734104046238</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5648.761239042713</v>
+        <v>5342.0496443181783</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>2470.8992657877257</v>
+        <v>2210.3851956592839</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4699.4454135815886</v>
+        <v>6841.5407826371356</v>
       </c>
     </row>
   </sheetData>
